--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>518068.2126033982</v>
+        <v>519263.1913187752</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8861244.575809449</v>
+        <v>8861244.575809447</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>116.9725659584294</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>116.9725659584294</v>
       </c>
       <c r="W2" t="n">
         <v>263.7138800015061</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>135.1575449208055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>106.4013055330221</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>64.56359296246924</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>156.8503534212811</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -896,19 +896,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="D5" t="n">
-        <v>232.2791855053265</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>32.55518202532696</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>120.1587574558682</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>74.22211095554809</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>141.5339419229203</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1075,7 +1075,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>89.28741136156206</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>274.6484740663851</v>
       </c>
       <c r="H8" t="n">
-        <v>213.6895597919021</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883156</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>55.94174219837129</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>98.85630789274389</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>23.41994504831823</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>26.3325160222076</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.781160222249216</v>
+        <v>1.781160222249448</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>89.12985772078872</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>211.9723868103386</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>23.94563726208667</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>1.781160222249223</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>23.41994504831823</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>69.2952222263505</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>14.28690702917649</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>169.9738082135686</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>190.659570728438</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>301.0185525624054</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>14.74226606382327</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2172,7 +2172,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3343964518633</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H21" t="n">
         <v>92.83156789269626</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>130.7543719049324</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2271541212006</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>178.7960897571492</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,16 +2327,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>272.5018260972346</v>
+        <v>248.3950673954679</v>
       </c>
       <c r="H23" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>75.27834706433225</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2271541212006</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>151.5672303569904</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>167.8896637139451</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>208.2474868886323</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>73.00698844450868</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>118.169212821623</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>96.09722746191603</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>127.4895151583762</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>101.5575724195736</v>
+        <v>30.09519610355497</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>26.30660220273099</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>193.1994278308467</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>146.924616828899</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>41.28371368070783</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>186.1075578061191</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>193.1994278308467</v>
+        <v>264.2129340777868</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>79.4165396514655</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>230.7871511611222</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>127.4895151583758</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>93.58806662825057</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838592</v>
       </c>
       <c r="T39" t="n">
         <v>192.0665623188214</v>
@@ -3712,7 +3712,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>105.5027752869399</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
         <v>286.2271541212006</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>103.3387326418226</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>53.96736632880982</v>
       </c>
       <c r="U41" t="n">
-        <v>201.9062000222452</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,25 +3898,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.02777015007112</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>56.22325617465676</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3983,19 +3983,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>112.9202415154696</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>220.4467562824249</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>28.01657409381998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>105.5027752869399</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
         <v>286.2271541212006</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.7225503044907</v>
+        <v>670.32375641013</v>
       </c>
       <c r="C2" t="n">
-        <v>255.7225503044907</v>
+        <v>670.32375641013</v>
       </c>
       <c r="D2" t="n">
-        <v>255.7225503044907</v>
+        <v>670.32375641013</v>
       </c>
       <c r="E2" t="n">
-        <v>255.7225503044907</v>
+        <v>670.32375641013</v>
       </c>
       <c r="F2" t="n">
-        <v>255.7225503044907</v>
+        <v>670.32375641013</v>
       </c>
       <c r="G2" t="n">
-        <v>255.7225503044907</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4364,16 +4364,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388466</v>
+        <v>936.701412977308</v>
       </c>
       <c r="W2" t="n">
-        <v>522.1002068716687</v>
+        <v>670.32375641013</v>
       </c>
       <c r="X2" t="n">
-        <v>522.1002068716687</v>
+        <v>670.32375641013</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.7225503044907</v>
+        <v>670.32375641013</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273.4227970725825</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>273.4227970725825</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>273.4227970725825</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>273.4227970725825</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>273.4227970725825</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004799</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>247.7358133554696</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
         <v>909.4672107560896</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413019</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>481.2742972781153</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>481.2742972781153</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>481.2742972781153</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>273.4227970725825</v>
+        <v>365.3801818123527</v>
       </c>
       <c r="Y3" t="n">
-        <v>273.4227970725825</v>
+        <v>157.6198830473988</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>989.6397695388839</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>782.8527349493953</v>
+        <v>767.628291415171</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3836987074096</v>
+        <v>542.1592551731853</v>
       </c>
       <c r="U4" t="n">
-        <v>291.0060421402317</v>
+        <v>275.7815986060074</v>
       </c>
       <c r="V4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="W4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="D5" t="n">
-        <v>21.09711040012049</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="E5" t="n">
-        <v>21.09711040012049</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="F5" t="n">
-        <v>21.09711040012049</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4568,13 +4568,13 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>586.7364457822814</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>455.2717565768139</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>280.8187272956869</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>280.8187272956869</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>915.14715393416</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>718.3380755655976</v>
+        <v>831.2473923618359</v>
       </c>
       <c r="U6" t="n">
-        <v>718.3380755655976</v>
+        <v>831.2473923618359</v>
       </c>
       <c r="V6" t="n">
-        <v>483.1859673338549</v>
+        <v>831.2473923618359</v>
       </c>
       <c r="W6" t="n">
-        <v>228.9486106056533</v>
+        <v>831.2473923618359</v>
       </c>
       <c r="X6" t="n">
-        <v>21.09711040012049</v>
+        <v>831.2473923618359</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.09711040012049</v>
+        <v>623.487093596882</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1054.855520006025</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="C7" t="n">
-        <v>911.8919423061051</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="D7" t="n">
-        <v>761.7753028937693</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="E7" t="n">
-        <v>613.8622093113762</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="F7" t="n">
-        <v>466.9722618134659</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="G7" t="n">
-        <v>298.4029011684693</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="X7" t="n">
-        <v>1054.855520006025</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="Y7" t="n">
-        <v>1054.855520006025</v>
+        <v>629.0866528456006</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1432.831501090107</v>
+        <v>1110.088185601309</v>
       </c>
       <c r="C8" t="n">
-        <v>1063.868984149696</v>
+        <v>1110.088185601309</v>
       </c>
       <c r="D8" t="n">
-        <v>1063.868984149696</v>
+        <v>1110.088185601309</v>
       </c>
       <c r="E8" t="n">
-        <v>678.0807315514512</v>
+        <v>1110.088185601309</v>
       </c>
       <c r="F8" t="n">
-        <v>267.0948267618436</v>
+        <v>699.1022808117011</v>
       </c>
       <c r="G8" t="n">
-        <v>267.0948267618436</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>2209.570673130041</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y8" t="n">
-        <v>1819.431341154229</v>
+        <v>1110.088185601309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2362.930966067699</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.1371474485136</v>
+        <v>834.938065318854</v>
       </c>
       <c r="C10" t="n">
-        <v>825.1371474485136</v>
+        <v>666.0018823909471</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>825.1371474485136</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W10" t="n">
-        <v>825.1371474485136</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X10" t="n">
-        <v>825.1371474485136</v>
+        <v>1237.379109292624</v>
       </c>
       <c r="Y10" t="n">
-        <v>825.1371474485136</v>
+        <v>1016.586530149094</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1601.84766053555</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="C11" t="n">
-        <v>1232.885143595138</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="D11" t="n">
-        <v>874.6194449883878</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E11" t="n">
-        <v>488.8311923901436</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F11" t="n">
-        <v>77.84528760053604</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G11" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L11" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M11" t="n">
         <v>1220.470313923562</v>
@@ -5066,25 +5066,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T11" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U11" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V11" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W11" t="n">
-        <v>1975.31341879663</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X11" t="n">
-        <v>1601.84766053555</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y11" t="n">
-        <v>1601.84766053555</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E12" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L12" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M12" t="n">
-        <v>1154.038517360656</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N12" t="n">
-        <v>1541.323645957601</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O12" t="n">
         <v>2175.502629736639</v>
@@ -5151,16 +5151,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.519478116707</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J13" t="n">
         <v>76.71595955312198</v>
@@ -5212,10 +5212,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q13" t="n">
         <v>1636.446120074497</v>
@@ -5224,25 +5224,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S13" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T13" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U13" t="n">
-        <v>825.1371474485136</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="V13" t="n">
-        <v>570.4526592426267</v>
+        <v>570.452659242627</v>
       </c>
       <c r="W13" t="n">
-        <v>281.0354892056661</v>
+        <v>281.0354892056664</v>
       </c>
       <c r="X13" t="n">
-        <v>53.04593830764878</v>
+        <v>53.04593830764901</v>
       </c>
       <c r="Y13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1621.991392838317</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="C14" t="n">
-        <v>1621.991392838317</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D14" t="n">
-        <v>1263.725694231566</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E14" t="n">
-        <v>877.9374416333219</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F14" t="n">
-        <v>466.9515368437143</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M14" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T14" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U14" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V14" t="n">
-        <v>2348.225806369511</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W14" t="n">
-        <v>1995.457151099396</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X14" t="n">
-        <v>1621.991392838317</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y14" t="n">
-        <v>1621.991392838317</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G15" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K15" t="n">
-        <v>298.3188265310615</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L15" t="n">
-        <v>932.4978103101</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M15" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N15" t="n">
-        <v>1683.044957866265</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O15" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P15" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R15" t="n">
         <v>2562.339328400155</v>
@@ -5388,7 +5388,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V15" t="n">
         <v>1769.368633815395</v>
@@ -5397,7 +5397,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y15" t="n">
         <v>1099.519478116707</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1006.015525202711</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C16" t="n">
-        <v>837.0793422748037</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D16" t="n">
-        <v>686.9627028624679</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E16" t="n">
-        <v>539.0496092800748</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F16" t="n">
-        <v>392.1596617821644</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G16" t="n">
-        <v>224.173197090443</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H16" t="n">
-        <v>75.43429895394925</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M16" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S16" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T16" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U16" t="n">
-        <v>1636.446120074498</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V16" t="n">
-        <v>1636.446120074498</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W16" t="n">
-        <v>1636.446120074498</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X16" t="n">
-        <v>1408.45656917648</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="Y16" t="n">
-        <v>1187.66399003295</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>848.0209439558549</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="C17" t="n">
-        <v>848.0209439558549</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="D17" t="n">
-        <v>848.0209439558549</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E17" t="n">
-        <v>462.2326913576107</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F17" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G17" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H17" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J17" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N17" t="n">
         <v>1656.671415230817</v>
@@ -5540,25 +5540,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S17" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T17" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U17" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V17" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W17" t="n">
-        <v>1291.481876182945</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X17" t="n">
-        <v>918.0161179218655</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y17" t="n">
-        <v>848.0209439558549</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D18" t="n">
         <v>607.9167021542605</v>
@@ -5580,40 +5580,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F18" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H18" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>560.1394111735141</v>
+        <v>575.6256845144202</v>
       </c>
       <c r="L18" t="n">
-        <v>854.8429682049857</v>
+        <v>870.3292415458918</v>
       </c>
       <c r="M18" t="n">
-        <v>1218.104987164206</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O18" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P18" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q18" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R18" t="n">
         <v>2562.339328400155</v>
@@ -5631,7 +5631,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
         <v>1307.279776881661</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>518.2127024906389</v>
+        <v>827.323049110248</v>
       </c>
       <c r="C19" t="n">
-        <v>349.2765195627319</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D19" t="n">
-        <v>199.1598801503962</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E19" t="n">
-        <v>51.24678656800311</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F19" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G19" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K19" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L19" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N19" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O19" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P19" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q19" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R19" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S19" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T19" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U19" t="n">
-        <v>1636.446120074497</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V19" t="n">
-        <v>1381.76163186861</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="W19" t="n">
-        <v>1092.34446183165</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="X19" t="n">
-        <v>920.6537464644088</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="Y19" t="n">
-        <v>699.8611673208786</v>
+        <v>827.323049110248</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1550.959102576163</v>
+        <v>906.1570541554036</v>
       </c>
       <c r="C20" t="n">
-        <v>1181.996585635751</v>
+        <v>713.5716291771834</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.996585635751</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="E20" t="n">
-        <v>1181.996585635751</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F20" t="n">
-        <v>771.0106808461439</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G20" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H20" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I20" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K20" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M20" t="n">
         <v>1220.470313923562</v>
@@ -5780,22 +5780,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T20" t="n">
-        <v>2547.448150557909</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U20" t="n">
-        <v>2293.867089822089</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V20" t="n">
-        <v>2293.867089822089</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W20" t="n">
-        <v>1941.098434551975</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X20" t="n">
-        <v>1941.098434551975</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y20" t="n">
-        <v>1550.959102576163</v>
+        <v>906.1570541554036</v>
       </c>
     </row>
     <row r="21">
@@ -5811,13 +5811,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G21" t="n">
         <v>165.443278618252</v>
@@ -5826,31 +5826,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I21" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J21" t="n">
-        <v>143.6627691908469</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>590.2049751143496</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L21" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M21" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N21" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O21" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P21" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q21" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R21" t="n">
         <v>2562.339328400155</v>
@@ -5887,28 +5887,28 @@
         <v>220.18296949591</v>
       </c>
       <c r="C22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K22" t="n">
         <v>248.4064713020475</v>
@@ -5935,25 +5935,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S22" t="n">
-        <v>1504.370996938202</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T22" t="n">
-        <v>1281.392516132937</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U22" t="n">
-        <v>992.2741786367748</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V22" t="n">
-        <v>737.5896904308879</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W22" t="n">
-        <v>448.1725203939274</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X22" t="n">
-        <v>220.18296949591</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.18296949591</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1785.600156360221</v>
       </c>
       <c r="C23" t="n">
-        <v>1785.600156360221</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D23" t="n">
-        <v>1427.334457753471</v>
+        <v>1058.371940813059</v>
       </c>
       <c r="E23" t="n">
-        <v>1041.546205155227</v>
+        <v>672.5836882148151</v>
       </c>
       <c r="F23" t="n">
-        <v>630.5603003656192</v>
+        <v>672.5836882148151</v>
       </c>
       <c r="G23" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H23" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I23" t="n">
         <v>51.2467865680031</v>
@@ -6005,10 +6005,10 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P23" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q23" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R23" t="n">
         <v>2562.339328400155</v>
@@ -6066,28 +6066,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J24" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K24" t="n">
-        <v>614.5430248380227</v>
+        <v>482.9033490193025</v>
       </c>
       <c r="L24" t="n">
-        <v>909.2465818694943</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M24" t="n">
-        <v>1272.508600828714</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.79372942566</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O24" t="n">
-        <v>1991.864164601821</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P24" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q24" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R24" t="n">
         <v>2562.339328400155</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>276.0244191129133</v>
+        <v>1125.053088476054</v>
       </c>
       <c r="C25" t="n">
-        <v>276.0244191129133</v>
+        <v>1125.053088476054</v>
       </c>
       <c r="D25" t="n">
-        <v>276.0244191129133</v>
+        <v>1125.053088476054</v>
       </c>
       <c r="E25" t="n">
-        <v>276.0244191129133</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="F25" t="n">
-        <v>276.0244191129133</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="G25" t="n">
-        <v>276.0244191129133</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="H25" t="n">
-        <v>127.2855209764195</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="I25" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K25" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L25" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M25" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N25" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O25" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P25" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q25" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R25" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S25" t="n">
-        <v>1337.23396574994</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T25" t="n">
-        <v>1337.23396574994</v>
+        <v>2339.36084759489</v>
       </c>
       <c r="U25" t="n">
-        <v>1048.115628253778</v>
+        <v>2050.242510098728</v>
       </c>
       <c r="V25" t="n">
-        <v>793.4311400478913</v>
+        <v>1795.558021892841</v>
       </c>
       <c r="W25" t="n">
-        <v>504.0139700109307</v>
+        <v>1506.14085185588</v>
       </c>
       <c r="X25" t="n">
-        <v>276.0244191129133</v>
+        <v>1278.151300957863</v>
       </c>
       <c r="Y25" t="n">
-        <v>276.0244191129133</v>
+        <v>1125.053088476054</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1575.249159503017</v>
+        <v>1802.273730074952</v>
       </c>
       <c r="C26" t="n">
-        <v>1206.286642562605</v>
+        <v>1433.311213134541</v>
       </c>
       <c r="D26" t="n">
-        <v>848.0209439558548</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E26" t="n">
-        <v>462.2326913576106</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="F26" t="n">
-        <v>51.2467865680031</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G26" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H26" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I26" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K26" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M26" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O26" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X26" t="n">
-        <v>2351.988331542951</v>
+        <v>2188.873570139074</v>
       </c>
       <c r="Y26" t="n">
-        <v>1961.848999567139</v>
+        <v>2188.873570139074</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E27" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G27" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I27" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J27" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K27" t="n">
         <v>614.5430248380227</v>
@@ -6336,7 +6336,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V27" t="n">
         <v>1769.368633815395</v>
@@ -6345,7 +6345,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y27" t="n">
         <v>1099.519478116707</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.2467865680031</v>
+        <v>1387.80707528552</v>
       </c>
       <c r="C28" t="n">
-        <v>51.2467865680031</v>
+        <v>1218.870892357613</v>
       </c>
       <c r="D28" t="n">
-        <v>51.2467865680031</v>
+        <v>1145.126459585382</v>
       </c>
       <c r="E28" t="n">
-        <v>51.2467865680031</v>
+        <v>1145.126459585382</v>
       </c>
       <c r="F28" t="n">
-        <v>51.2467865680031</v>
+        <v>1145.126459585382</v>
       </c>
       <c r="G28" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936604</v>
       </c>
       <c r="H28" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936604</v>
       </c>
       <c r="I28" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936604</v>
       </c>
       <c r="J28" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K28" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L28" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M28" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N28" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O28" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P28" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q28" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R28" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S28" t="n">
-        <v>1517.083278840534</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T28" t="n">
-        <v>1294.10479803527</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U28" t="n">
-        <v>1004.986460539108</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V28" t="n">
-        <v>750.3019723332208</v>
+        <v>2307.654840194267</v>
       </c>
       <c r="W28" t="n">
-        <v>460.8848022962601</v>
+        <v>2018.237670157307</v>
       </c>
       <c r="X28" t="n">
-        <v>232.8952513982428</v>
+        <v>1790.248119259289</v>
       </c>
       <c r="Y28" t="n">
-        <v>232.8952513982428</v>
+        <v>1569.455540115759</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1412.134398099142</v>
+        <v>949.8076959691464</v>
       </c>
       <c r="C29" t="n">
-        <v>1043.17188115873</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="D29" t="n">
-        <v>1043.17188115873</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="E29" t="n">
-        <v>657.3836285604862</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F29" t="n">
-        <v>246.3977237708786</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G29" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H29" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I29" t="n">
         <v>51.24678656800311</v>
@@ -6491,22 +6491,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T29" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U29" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V29" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W29" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="X29" t="n">
-        <v>2188.873570139076</v>
+        <v>1726.54686800908</v>
       </c>
       <c r="Y29" t="n">
-        <v>1798.734238163264</v>
+        <v>1336.407536033268</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L30" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M30" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N30" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O30" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P30" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400155</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2013.57636781303</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C31" t="n">
-        <v>1844.640184885123</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D31" t="n">
-        <v>1694.523545472787</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E31" t="n">
-        <v>1546.610451890394</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F31" t="n">
-        <v>1399.720504392484</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G31" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H31" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I31" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J31" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K31" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L31" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M31" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N31" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O31" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P31" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q31" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R31" t="n">
-        <v>2459.755921915737</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="S31" t="n">
-        <v>2263.127174075598</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="T31" t="n">
-        <v>2040.148693270334</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.57636781303</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="V31" t="n">
-        <v>2013.57636781303</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="W31" t="n">
-        <v>2013.57636781303</v>
+        <v>1316.629762054147</v>
       </c>
       <c r="X31" t="n">
-        <v>2013.57636781303</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="Y31" t="n">
-        <v>2013.57636781303</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1412.134398099142</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C32" t="n">
-        <v>1043.17188115873</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D32" t="n">
-        <v>1043.17188115873</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E32" t="n">
-        <v>657.3836285604862</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="F32" t="n">
-        <v>246.3977237708786</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J32" t="n">
         <v>187.5281822362817</v>
@@ -6704,46 +6704,46 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P32" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R32" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S32" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T32" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U32" t="n">
-        <v>2562.339328400155</v>
+        <v>2413.930624532579</v>
       </c>
       <c r="V32" t="n">
-        <v>2562.339328400155</v>
+        <v>2413.930624532579</v>
       </c>
       <c r="W32" t="n">
-        <v>2562.339328400155</v>
+        <v>2413.930624532579</v>
       </c>
       <c r="X32" t="n">
-        <v>2188.873570139076</v>
+        <v>2040.464866271499</v>
       </c>
       <c r="Y32" t="n">
-        <v>1798.734238163264</v>
+        <v>1650.325534295688</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E33" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G33" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J33" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K33" t="n">
-        <v>590.2049751143501</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L33" t="n">
-        <v>884.9085321458217</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M33" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N33" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O33" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P33" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q33" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R33" t="n">
         <v>2562.339328400155</v>
@@ -6810,16 +6810,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V33" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y33" t="n">
         <v>1099.519478116707</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51.24678656800311</v>
+        <v>1632.69657920381</v>
       </c>
       <c r="C34" t="n">
-        <v>51.24678656800311</v>
+        <v>1463.760396275904</v>
       </c>
       <c r="D34" t="n">
-        <v>51.24678656800311</v>
+        <v>1313.643756863568</v>
       </c>
       <c r="E34" t="n">
-        <v>51.24678656800311</v>
+        <v>1165.730663281175</v>
       </c>
       <c r="F34" t="n">
-        <v>51.24678656800311</v>
+        <v>1018.840715783264</v>
       </c>
       <c r="G34" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936604</v>
       </c>
       <c r="H34" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936604</v>
       </c>
       <c r="I34" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936604</v>
       </c>
       <c r="J34" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K34" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L34" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M34" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N34" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O34" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P34" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q34" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R34" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915736</v>
       </c>
       <c r="S34" t="n">
-        <v>1448.458687947104</v>
+        <v>2263.127174075597</v>
       </c>
       <c r="T34" t="n">
-        <v>1225.480207141839</v>
+        <v>2263.127174075597</v>
       </c>
       <c r="U34" t="n">
-        <v>936.3618696456771</v>
+        <v>2263.127174075597</v>
       </c>
       <c r="V34" t="n">
-        <v>681.6773814397902</v>
+        <v>2263.127174075597</v>
       </c>
       <c r="W34" t="n">
-        <v>681.6773814397902</v>
+        <v>2263.127174075597</v>
       </c>
       <c r="X34" t="n">
-        <v>453.6878305417729</v>
+        <v>2035.13762317758</v>
       </c>
       <c r="Y34" t="n">
-        <v>232.8952513982428</v>
+        <v>1814.34504403405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1412.134398099142</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C35" t="n">
-        <v>1043.17188115873</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D35" t="n">
-        <v>1043.17188115873</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="E35" t="n">
-        <v>657.3836285604862</v>
+        <v>729.1144429513347</v>
       </c>
       <c r="F35" t="n">
-        <v>246.3977237708786</v>
+        <v>318.1285381617271</v>
       </c>
       <c r="G35" t="n">
         <v>51.24678656800311</v>
@@ -6935,25 +6935,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M35" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N35" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O35" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P35" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q35" t="n">
         <v>2542.25058172385</v>
@@ -6971,16 +6971,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V35" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W35" t="n">
-        <v>2562.339328400155</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X35" t="n">
-        <v>2188.873570139076</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y35" t="n">
-        <v>1798.734238163264</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J36" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K36" t="n">
-        <v>423.148951518066</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L36" t="n">
-        <v>717.8525085495377</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M36" t="n">
-        <v>1081.114527508758</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.399656105703</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O36" t="n">
-        <v>1800.470091281865</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P36" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q36" t="n">
         <v>2562.339328400155</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51.24678656800311</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C37" t="n">
-        <v>51.24678656800311</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D37" t="n">
-        <v>51.24678656800311</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E37" t="n">
         <v>51.24678656800311</v>
@@ -7120,25 +7120,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1556.227393153825</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>1333.24891234856</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U37" t="n">
-        <v>1044.130574852398</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V37" t="n">
-        <v>789.4460866465112</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W37" t="n">
-        <v>500.0289166095505</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X37" t="n">
-        <v>272.0393657115332</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y37" t="n">
-        <v>51.24678656800311</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1412.134398099142</v>
+        <v>420.2093035084148</v>
       </c>
       <c r="C38" t="n">
-        <v>1043.17188115873</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D38" t="n">
-        <v>1043.17188115873</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E38" t="n">
-        <v>657.3836285604857</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F38" t="n">
-        <v>246.3977237708781</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G38" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H38" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I38" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816092</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872923</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N38" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O38" t="n">
         <v>2055.22848474084</v>
@@ -7199,25 +7199,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T38" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U38" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V38" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W38" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X38" t="n">
-        <v>2188.873570139075</v>
+        <v>1196.948475548348</v>
       </c>
       <c r="Y38" t="n">
-        <v>1798.734238163263</v>
+        <v>806.8091435725366</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I39" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K39" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L39" t="n">
-        <v>909.2465818694943</v>
+        <v>599.4122767260736</v>
       </c>
       <c r="M39" t="n">
-        <v>1272.508600828714</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O39" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P39" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q39" t="n">
         <v>2562.339328400155</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="C40" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="D40" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="E40" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="F40" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="G40" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H40" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I40" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K40" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L40" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M40" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N40" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O40" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P40" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q40" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R40" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S40" t="n">
-        <v>1439.817372234358</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="T40" t="n">
-        <v>1333.24891234856</v>
+        <v>2142.732099754752</v>
       </c>
       <c r="U40" t="n">
-        <v>1044.130574852398</v>
+        <v>1853.61376225859</v>
       </c>
       <c r="V40" t="n">
-        <v>789.4460866465112</v>
+        <v>1598.929274052703</v>
       </c>
       <c r="W40" t="n">
-        <v>500.0289166095505</v>
+        <v>1309.512104015742</v>
       </c>
       <c r="X40" t="n">
-        <v>272.0393657115332</v>
+        <v>1081.522553117725</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936618</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1263.725694231566</v>
+        <v>420.2093035084148</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.725694231566</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D41" t="n">
-        <v>1263.725694231566</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9374416333219</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F41" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G41" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H41" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I41" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362828</v>
       </c>
       <c r="K41" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816092</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872923</v>
       </c>
       <c r="M41" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N41" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O41" t="n">
         <v>2055.22848474084</v>
@@ -7439,22 +7439,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400155</v>
+        <v>2507.826837158933</v>
       </c>
       <c r="U41" t="n">
-        <v>2358.393671812029</v>
+        <v>2254.245776423113</v>
       </c>
       <c r="V41" t="n">
-        <v>2027.330784468458</v>
+        <v>1923.182889079542</v>
       </c>
       <c r="W41" t="n">
-        <v>2027.330784468458</v>
+        <v>1570.414233809428</v>
       </c>
       <c r="X41" t="n">
-        <v>1653.865026207378</v>
+        <v>1196.948475548348</v>
       </c>
       <c r="Y41" t="n">
-        <v>1263.725694231566</v>
+        <v>806.8091435725366</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I42" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J42" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>614.5430248380227</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L42" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M42" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N42" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O42" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P42" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>219.2332512597245</v>
+        <v>1016.7548251959</v>
       </c>
       <c r="C43" t="n">
-        <v>219.2332512597245</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D43" t="n">
-        <v>219.2332512597245</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E43" t="n">
-        <v>219.2332512597245</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F43" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G43" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H43" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K43" t="n">
         <v>248.4064713020475</v>
@@ -7594,25 +7594,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S43" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T43" t="n">
-        <v>1280.442797896752</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U43" t="n">
-        <v>991.3244604005894</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V43" t="n">
-        <v>736.6399721947025</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W43" t="n">
-        <v>447.2228021577419</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="X43" t="n">
-        <v>219.2332512597245</v>
+        <v>1016.7548251959</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.2332512597245</v>
+        <v>1016.7548251959</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1785.600156360221</v>
+        <v>1189.460906904773</v>
       </c>
       <c r="C44" t="n">
-        <v>1416.63763941981</v>
+        <v>820.4983899643612</v>
       </c>
       <c r="D44" t="n">
-        <v>1058.371940813059</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="E44" t="n">
-        <v>944.3110907974335</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F44" t="n">
-        <v>533.3251860078259</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G44" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H44" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I44" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K44" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
         <v>1656.671415230817</v>
@@ -7664,7 +7664,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q44" t="n">
         <v>2542.25058172385</v>
@@ -7685,13 +7685,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W44" t="n">
-        <v>2562.339328400155</v>
+        <v>2339.665837205786</v>
       </c>
       <c r="X44" t="n">
-        <v>2562.339328400155</v>
+        <v>1966.200078944706</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.199996424343</v>
+        <v>1576.060746968895</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L45" t="n">
-        <v>593.9684409159568</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M45" t="n">
-        <v>957.2304598751767</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.515588472122</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O45" t="n">
-        <v>1676.586023648284</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P45" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R45" t="n">
         <v>2562.339328400155</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.2467865680031</v>
+        <v>398.5991786999831</v>
       </c>
       <c r="C46" t="n">
-        <v>51.2467865680031</v>
+        <v>229.6629957720762</v>
       </c>
       <c r="D46" t="n">
-        <v>51.2467865680031</v>
+        <v>79.54635635974046</v>
       </c>
       <c r="E46" t="n">
-        <v>51.2467865680031</v>
+        <v>79.54635635974046</v>
       </c>
       <c r="F46" t="n">
-        <v>51.2467865680031</v>
+        <v>79.54635635974046</v>
       </c>
       <c r="G46" t="n">
         <v>51.2467865680031</v>
@@ -7831,25 +7831,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T46" t="n">
-        <v>1333.24891234856</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U46" t="n">
-        <v>1044.130574852398</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V46" t="n">
-        <v>789.4460866465112</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W46" t="n">
-        <v>500.0289166095505</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X46" t="n">
-        <v>272.0393657115332</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.2467865680031</v>
+        <v>580.2476435302228</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.262887399594092</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167801</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.35797727397664</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,13 +8775,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>199.7516311504071</v>
+        <v>129.4330134067484</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O12" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>186.5911984019039</v>
+        <v>30.36925650589473</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>154.0169020165194</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>240.4465442417442</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>30.36925650589448</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>193.3273467878357</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>193.327346787835</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L30" t="n">
-        <v>138.9393975111056</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>20.93778120154991</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>168.7434581780647</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>193.3273467878351</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>20.93778120154991</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>6.454437538929994</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>20.93778120154991</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>193.327346787835</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9556134883069376</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>197.2210666708386</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>210.7796925117055</v>
       </c>
       <c r="W2" t="n">
         <v>85.52708871590687</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>31.37563872906185</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22638,13 +22638,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>29.62141405340138</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22726,7 +22726,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>62.94100992119468</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>47.86881082231267</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22784,19 +22784,19 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>122.4038561153565</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.83417464571</v>
+        <v>380.278992620383</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -22835,10 +22835,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22878,10 +22878,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>26.9911779563306</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>120.6188766293287</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22942,13 +22942,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>25.71287917570754</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,13 +22987,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>133.9269345180038</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>136.8992287065689</v>
       </c>
       <c r="H8" t="n">
-        <v>87.32899277050325</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,16 +23069,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23176,19 +23176,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>92.67373081984107</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23197,7 +23197,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23230,10 +23230,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23242,10 +23242,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>126.8533474962933</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>341.8529467226893</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>385.2151867507464</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23431,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I13" t="n">
         <v>104.7965952039006</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.8034931298456</v>
+        <v>216.8034931298454</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>276.1430340502188</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>115.7798716597963</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I16" t="n">
-        <v>80.85095794181387</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>216.8034931298456</v>
       </c>
     </row>
     <row r="17">
@@ -23729,19 +23729,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>341.8529467226893</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.547702772954</v>
@@ -23750,7 +23750,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>316.9427164297031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>152.9599140694513</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>104.7965952039006</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>55.73584717546851</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,19 +23969,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>174.6133210425696</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,19 +24020,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>191.9159189164105</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>63.90808845680507</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>46.91356563188796</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,16 +24215,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>139.0458766757194</v>
+        <v>163.152635377486</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I25" t="n">
-        <v>29.51824813956833</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>67.01742299510434</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>186.7933779067379</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>301.0185525624054</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>161.4836137898368</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>75.60848457370368</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>147.2515091551289</v>
@@ -24649,13 +24649,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>76.4932475401145</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>269.1756643090915</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,16 +24689,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>284.0581876145777</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24731,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>71.46237631601866</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>259.9205519184696</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>218.3482749421073</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.0185525624054</v>
@@ -24971,7 +24971,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
-        <v>251.045250128462</v>
+        <v>104.120633299563</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>125.0228863640964</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551289</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>8.554902555618384</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>218.3482749421073</v>
+        <v>147.3347686951672</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
@@ -25211,10 +25211,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25360,19 +25360,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>115.245920710272</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>55.73584717546879</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25397,19 +25397,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>284.0581876145782</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25439,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>276.1430340502185</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>115.245920710272</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>115.2459207102722</v>
       </c>
     </row>
     <row r="41">
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
         <v>301.0185525624054</v>
@@ -25679,16 +25679,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>152.6908186514239</v>
       </c>
       <c r="U41" t="n">
-        <v>49.13905010621684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>70.21905094855671</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,19 +25834,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>164.5254398225552</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>269.0101285567922</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,10 +25925,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>128.7942124349881</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>138.2900259509842</v>
       </c>
       <c r="H46" t="n">
         <v>147.2515091551289</v>
@@ -26071,10 +26071,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>115.245920710272</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>531745.8774266866</v>
+        <v>531745.8774266867</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>795881.4350570393</v>
+        <v>795881.4350570394</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795881.4350570394</v>
+        <v>795881.4350570393</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795881.4350570394</v>
+        <v>795881.4350570393</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>795881.4350570395</v>
+        <v>795881.4350570393</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795881.4350570391</v>
+        <v>795881.4350570393</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795881.4350570393</v>
+        <v>795881.4350570391</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>795881.4350570393</v>
+        <v>795881.4350570394</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>795881.4350570394</v>
+        <v>795881.4350570391</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26317,19 @@
         <v>193768.2521372568</v>
       </c>
       <c r="D2" t="n">
-        <v>290673.0489695931</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="E2" t="n">
-        <v>290673.0489695932</v>
+        <v>290673.048969593</v>
       </c>
       <c r="F2" t="n">
         <v>290673.0489695932</v>
       </c>
       <c r="G2" t="n">
-        <v>290673.0489695934</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="H2" t="n">
-        <v>290673.0489695931</v>
+        <v>290673.0489695933</v>
       </c>
       <c r="I2" t="n">
         <v>290673.0489695931</v>
@@ -26341,13 +26341,13 @@
         <v>290673.0489695933</v>
       </c>
       <c r="L2" t="n">
-        <v>290673.0489695931</v>
+        <v>290673.0489695933</v>
       </c>
       <c r="M2" t="n">
-        <v>290673.0489695933</v>
+        <v>290673.0489695934</v>
       </c>
       <c r="N2" t="n">
-        <v>290673.0489695934</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="O2" t="n">
         <v>290673.0489695932</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059433</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.64613756962</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11972.50820442678</v>
+        <v>11859.77526465971</v>
       </c>
       <c r="C4" t="n">
-        <v>11972.50820442678</v>
+        <v>11859.77526465972</v>
       </c>
       <c r="D4" t="n">
-        <v>16327.31484241939</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="E4" t="n">
-        <v>16327.31484241939</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="F4" t="n">
-        <v>16327.31484241938</v>
+        <v>16175.59256035158</v>
       </c>
       <c r="G4" t="n">
-        <v>16327.31484241939</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="H4" t="n">
-        <v>16327.31484241938</v>
+        <v>16175.59256035158</v>
       </c>
       <c r="I4" t="n">
-        <v>16327.31484241938</v>
+        <v>16175.59256035158</v>
       </c>
       <c r="J4" t="n">
-        <v>16327.31484241938</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="K4" t="n">
-        <v>16327.31484241938</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="L4" t="n">
-        <v>16327.31484241939</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="M4" t="n">
-        <v>16327.31484241938</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="N4" t="n">
-        <v>16327.31484241938</v>
+        <v>16175.59256035158</v>
       </c>
       <c r="O4" t="n">
-        <v>16327.31484241938</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="P4" t="n">
-        <v>16327.31484241938</v>
+        <v>16175.59256035157</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26479,7 +26479,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
         <v>59310.17243984471</v>
@@ -26491,13 +26491,13 @@
         <v>59310.17243984471</v>
       </c>
       <c r="J5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.1724398447</v>
       </c>
       <c r="K5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="L5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.1724398447</v>
       </c>
       <c r="M5" t="n">
         <v>59310.17243984471</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-561340.0398626293</v>
+        <v>-561227.3069228622</v>
       </c>
       <c r="C6" t="n">
-        <v>118747.9407285638</v>
+        <v>118860.6736683309</v>
       </c>
       <c r="D6" t="n">
-        <v>-209720.4021186142</v>
+        <v>-209568.6798365467</v>
       </c>
       <c r="E6" t="n">
-        <v>215035.5616873291</v>
+        <v>215187.2839693967</v>
       </c>
       <c r="F6" t="n">
-        <v>215035.5616873289</v>
+        <v>215187.283969397</v>
       </c>
       <c r="G6" t="n">
-        <v>215035.5616873295</v>
+        <v>215187.2839693969</v>
       </c>
       <c r="H6" t="n">
-        <v>215035.561687329</v>
+        <v>215187.283969397</v>
       </c>
       <c r="I6" t="n">
-        <v>215035.561687329</v>
+        <v>215187.2839693968</v>
       </c>
       <c r="J6" t="n">
-        <v>146036.4072682152</v>
+        <v>146188.1295502831</v>
       </c>
       <c r="K6" t="n">
-        <v>215035.5616873292</v>
+        <v>215187.283969397</v>
       </c>
       <c r="L6" t="n">
-        <v>119652.9155497593</v>
+        <v>119804.6378318274</v>
       </c>
       <c r="M6" t="n">
-        <v>215035.5616873292</v>
+        <v>215187.2839693971</v>
       </c>
       <c r="N6" t="n">
-        <v>215035.5616873293</v>
+        <v>215187.283969397</v>
       </c>
       <c r="O6" t="n">
-        <v>215035.5616873291</v>
+        <v>215187.283969397</v>
       </c>
       <c r="P6" t="n">
-        <v>215035.5616873293</v>
+        <v>215187.2839693971</v>
       </c>
     </row>
   </sheetData>
@@ -26738,19 +26738,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="E3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="F3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="F3" t="n">
-        <v>934.0648921175394</v>
-      </c>
-      <c r="G3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="H3" t="n">
         <v>934.0648921175391</v>
@@ -26796,37 +26796,37 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="F4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="G4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="H4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="F4" t="n">
-        <v>640.584832100039</v>
-      </c>
-      <c r="G4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="H4" t="n">
-        <v>640.5848321000387</v>
       </c>
       <c r="I4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="L4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="M4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P4" t="n">
         <v>640.5848321000387</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480607</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985323</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,43 +31753,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I11" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T11" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U11" t="n">
         <v>0.3004027793744847</v>
@@ -31832,10 +31832,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
@@ -31844,7 +31844,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M12" t="n">
         <v>509.0653662040588</v>
@@ -31853,25 +31853,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P12" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R12" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31929,10 +31929,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P13" t="n">
         <v>203.7180217169137</v>
@@ -31944,13 +31944,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J15" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,25 +32151,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K16" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L16" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P16" t="n">
         <v>203.7180217169137</v>
@@ -32178,16 +32178,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,43 +32227,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H17" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I17" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J17" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L17" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O17" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q17" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R17" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S17" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T17" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U17" t="n">
         <v>0.3004027793744847</v>
@@ -32306,10 +32306,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H18" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I18" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J18" t="n">
         <v>189.8178475575841</v>
@@ -32318,7 +32318,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M18" t="n">
         <v>509.0653662040588</v>
@@ -32327,25 +32327,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P18" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R18" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,7 +32388,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J19" t="n">
         <v>119.0856174753787</v>
@@ -32403,10 +32403,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N19" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O19" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P19" t="n">
         <v>203.7180217169137</v>
@@ -32418,13 +32418,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S19" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33895,7 +33895,7 @@
         <v>318.7038799491899</v>
       </c>
       <c r="K38" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857154</v>
       </c>
       <c r="L38" t="n">
         <v>592.5726450767379</v>
@@ -34129,7 +34129,7 @@
         <v>144.7659768979354</v>
       </c>
       <c r="J41" t="n">
-        <v>318.7038799491899</v>
+        <v>318.703879949191</v>
       </c>
       <c r="K41" t="n">
         <v>477.6545005857142</v>
@@ -34144,7 +34144,7 @@
         <v>670.0202366342223</v>
       </c>
       <c r="O41" t="n">
-        <v>632.6811099166599</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P41" t="n">
         <v>539.9786897190644</v>
@@ -34387,7 +34387,7 @@
         <v>539.9786897190644</v>
       </c>
       <c r="Q44" t="n">
-        <v>405.5015080147056</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R44" t="n">
         <v>235.8772011235311</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>153.4895779655504</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,7 +34790,7 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572285</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.8386996048312</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K12" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M12" t="n">
-        <v>566.6829634324475</v>
+        <v>496.3643456887889</v>
       </c>
       <c r="N12" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O12" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R12" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K13" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L13" t="n">
         <v>278.0112915831069</v>
@@ -35577,7 +35577,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O13" t="n">
         <v>262.6644876295069</v>
@@ -35586,7 +35586,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R14" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K15" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L15" t="n">
-        <v>640.584832100039</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N15" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O15" t="n">
-        <v>522.015880398027</v>
+        <v>365.7939385020177</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L16" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O16" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P16" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K17" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O17" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P17" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K18" t="n">
-        <v>451.0527332560634</v>
+        <v>340.6043982600042</v>
       </c>
       <c r="L18" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N18" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O18" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P18" t="n">
-        <v>490.1260733652765</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R18" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K19" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L19" t="n">
         <v>278.0112915831069</v>
@@ -36051,7 +36051,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N19" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O19" t="n">
         <v>262.6644876295069</v>
@@ -36060,7 +36060,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>93.34947739681188</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K21" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L21" t="n">
         <v>297.6803606378501</v>
@@ -36209,7 +36209,7 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N21" t="n">
-        <v>391.1970995928739</v>
+        <v>584.5244463807096</v>
       </c>
       <c r="O21" t="n">
         <v>335.424681996123</v>
@@ -36221,7 +36221,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R21" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R23" t="n">
-        <v>20.29166330939961</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K24" t="n">
-        <v>379.9148430313198</v>
+        <v>373.0365088578699</v>
       </c>
       <c r="L24" t="n">
         <v>297.6803606378501</v>
@@ -36452,13 +36452,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K27" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378501</v>
@@ -36911,10 +36911,10 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K30" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L30" t="n">
-        <v>436.6197581489557</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M30" t="n">
         <v>366.9313322820404</v>
@@ -36929,7 +36929,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K33" t="n">
-        <v>355.3309544215495</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378501</v>
@@ -37169,7 +37169,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R33" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K36" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378501</v>
@@ -37400,10 +37400,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>443.0068759113673</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q36" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K38" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407348</v>
       </c>
       <c r="L38" t="n">
         <v>356.8062301067507</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K39" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L39" t="n">
-        <v>297.6803606378501</v>
+        <v>304.1347981767801</v>
       </c>
       <c r="M39" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N39" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O39" t="n">
         <v>335.424681996123</v>
@@ -37640,7 +37640,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q39" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225048</v>
       </c>
       <c r="K41" t="n">
         <v>257.5646495407337</v>
@@ -37792,7 +37792,7 @@
         <v>440.6071730376314</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5828984949732</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P41" t="n">
         <v>308.7456939637948</v>
@@ -37859,7 +37859,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K42" t="n">
-        <v>379.9148430313198</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378501</v>
@@ -37880,7 +37880,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>308.7456939637948</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.1958181402561</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R44" t="n">
         <v>20.29166330939901</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K45" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L45" t="n">
-        <v>298.6359741261571</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M45" t="n">
         <v>366.9313322820404</v>
@@ -38111,13 +38111,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P45" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q45" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
